--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_32.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_32.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_6</t>
+          <t>model_1_32_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999811399541735</v>
+        <v>0.9501194385994378</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8246643641754785</v>
+        <v>0.7421177190538221</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8156610084362799</v>
+        <v>0.7543579268840731</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9988565183551249</v>
+        <v>0.9502011617528093</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0007850544425627524</v>
+        <v>0.1748568358190848</v>
       </c>
       <c r="G2" t="n">
-        <v>1.172470204104942</v>
+        <v>1.72446000012581</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6593698842345683</v>
+        <v>0.8786474523899113</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00331759998066945</v>
+        <v>0.2136319059524574</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03821252033910771</v>
+        <v>1.473491619310366</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02801882300459376</v>
+        <v>0.4181588643315897</v>
       </c>
       <c r="L2" t="n">
-        <v>1.012070429328958</v>
+        <v>0.9320775334120004</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02846009145836873</v>
+        <v>0.4247444484393035</v>
       </c>
       <c r="N2" t="n">
-        <v>144.2995149780072</v>
+        <v>37.48757544180665</v>
       </c>
       <c r="O2" t="n">
-        <v>285.6346875212236</v>
+        <v>74.45215903003248</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_0</t>
+          <t>model_1_32_6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998467067484477</v>
+        <v>0.9499577300319129</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8245927916748659</v>
+        <v>0.7413366061943334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8150622452860704</v>
+        <v>0.7575253129656838</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9994470646293913</v>
+        <v>0.9467966966182331</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006380872520308573</v>
+        <v>0.1754237069137218</v>
       </c>
       <c r="G3" t="n">
-        <v>1.1729488097461</v>
+        <v>1.729683305413904</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6615116253045852</v>
+        <v>0.8673178960315869</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001604239458555792</v>
+        <v>0.2282367120292183</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06100929780968325</v>
+        <v>1.431589113650346</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02526038899207329</v>
+        <v>0.4188361337250188</v>
       </c>
       <c r="L3" t="n">
-        <v>1.009810768099349</v>
+        <v>0.931857334511541</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02565821486757345</v>
+        <v>0.4254323841486581</v>
       </c>
       <c r="N3" t="n">
-        <v>144.7140710506021</v>
+        <v>37.48110209806801</v>
       </c>
       <c r="O3" t="n">
-        <v>286.0492435938185</v>
+        <v>74.44568568629383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_1</t>
+          <t>model_1_32_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998564792904527</v>
+        <v>0.9499845425371489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8245898179275698</v>
+        <v>0.7413351140310509</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8147710010623798</v>
+        <v>0.7567300977523631</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9994763425436699</v>
+        <v>0.9477840641535449</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0005974087850388768</v>
+        <v>0.1753297153928903</v>
       </c>
       <c r="G4" t="n">
-        <v>1.172968695207962</v>
+        <v>1.729693283516646</v>
       </c>
       <c r="H4" t="n">
-        <v>0.662553389005416</v>
+        <v>0.8701623347404077</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001519295018668917</v>
+        <v>0.224001006621851</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05675181074963295</v>
+        <v>1.444549500736243</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02444194724318987</v>
+        <v>0.4187239130893892</v>
       </c>
       <c r="L4" t="n">
-        <v>1.009185325411025</v>
+        <v>0.9318938451569687</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02482688347928671</v>
+        <v>0.4253183961501968</v>
       </c>
       <c r="N4" t="n">
-        <v>144.8458178936706</v>
+        <v>37.48217397953348</v>
       </c>
       <c r="O4" t="n">
-        <v>286.180990436887</v>
+        <v>74.44675756775931</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_7</t>
+          <t>model_1_32_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998193631124098</v>
+        <v>0.949990370842283</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8245730734086495</v>
+        <v>0.7413316918773128</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8158068161511149</v>
+        <v>0.756448667673565</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9989134438574735</v>
+        <v>0.9481169313105136</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000751905867027089</v>
+        <v>0.1753092842075684</v>
       </c>
       <c r="G5" t="n">
-        <v>1.173080665883083</v>
+        <v>1.72971616747445</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6588483384930199</v>
+        <v>0.8711689938140151</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003152441190112756</v>
+        <v>0.2225730406757537</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04017483394816131</v>
+        <v>1.44901701870918</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02742090200972771</v>
+        <v>0.418699515413582</v>
       </c>
       <c r="L5" t="n">
-        <v>1.011560760805772</v>
+        <v>0.9319017815724705</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02785275380553525</v>
+        <v>0.4252936142353844</v>
       </c>
       <c r="N5" t="n">
-        <v>144.3857988373508</v>
+        <v>37.48240705326879</v>
       </c>
       <c r="O5" t="n">
-        <v>285.7209713805672</v>
+        <v>74.44699064149461</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_5</t>
+          <t>model_1_32_3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998194399318595</v>
+        <v>0.949995061680687</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8245240375373506</v>
+        <v>0.7413289064135986</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8152317585810573</v>
+        <v>0.7561593560727323</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9989540020924906</v>
+        <v>0.9484529247954171</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0007515861040168716</v>
+        <v>0.1752928404239055</v>
       </c>
       <c r="G6" t="n">
-        <v>1.173408568980249</v>
+        <v>1.729734793883133</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6609052860773623</v>
+        <v>0.8722038446349432</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003034768991077462</v>
+        <v>0.221131663103625</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04025898326215546</v>
+        <v>1.453564283582375</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02741507074615843</v>
+        <v>0.4186798782171236</v>
       </c>
       <c r="L6" t="n">
-        <v>1.011555844360991</v>
+        <v>0.9319081690971057</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02784683070539388</v>
+        <v>0.4252736677727118</v>
       </c>
       <c r="N6" t="n">
-        <v>144.3866495582623</v>
+        <v>37.48259465947559</v>
       </c>
       <c r="O6" t="n">
-        <v>285.7218221014788</v>
+        <v>74.44717824770142</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_8</t>
+          <t>model_1_32_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998180143454201</v>
+        <v>0.9499958036735148</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8244912409646397</v>
+        <v>0.7413109280759717</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8159010915019547</v>
+        <v>0.7558688441324244</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9988861267019707</v>
+        <v>0.9487834985403238</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0007575201456297098</v>
+        <v>0.1752902393601959</v>
       </c>
       <c r="G7" t="n">
-        <v>1.173627879812981</v>
+        <v>1.729855015109627</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6585111210294654</v>
+        <v>0.8732429890005742</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003231696851953757</v>
+        <v>0.2197135356599341</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03826545552743503</v>
+        <v>1.458170755631638</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02752308386844959</v>
+        <v>0.4186767719377276</v>
       </c>
       <c r="L7" t="n">
-        <v>1.011647081893116</v>
+        <v>0.931909179470318</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02795654492638762</v>
+        <v>0.4252705125725204</v>
       </c>
       <c r="N7" t="n">
-        <v>144.3709208520874</v>
+        <v>37.48262433647782</v>
       </c>
       <c r="O7" t="n">
-        <v>285.7060933953038</v>
+        <v>74.44720792470365</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_9</t>
+          <t>model_1_32_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998197654938066</v>
+        <v>0.9499957485500662</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8244645807010885</v>
+        <v>0.7412958906859648</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8159756745336063</v>
+        <v>0.755566358649266</v>
       </c>
       <c r="E8" t="n">
-        <v>0.998893807537083</v>
+        <v>0.9491185256076976</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0007502309437207923</v>
+        <v>0.1752904325960286</v>
       </c>
       <c r="G8" t="n">
-        <v>1.173806157118106</v>
+        <v>1.729955570205844</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6582443418498201</v>
+        <v>0.874324962034716</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003209412332972509</v>
+        <v>0.2182763039198393</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03759087300310753</v>
+        <v>1.462841618403481</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02739034398690152</v>
+        <v>0.4186770027073717</v>
       </c>
       <c r="L8" t="n">
-        <v>1.011535008396379</v>
+        <v>0.9319091044086008</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02782171452439637</v>
+        <v>0.4252707469765558</v>
       </c>
       <c r="N8" t="n">
-        <v>144.390258947744</v>
+        <v>37.48262213172612</v>
       </c>
       <c r="O8" t="n">
-        <v>285.7254314909604</v>
+        <v>74.44720571995195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_2</t>
+          <t>model_1_32_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998519731272769</v>
+        <v>0.9498995384211185</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8244463213502973</v>
+        <v>0.74112992004797</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8150651887067648</v>
+        <v>0.7581470517083927</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9994293526855901</v>
+        <v>0.9460444232841598</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006161658095583286</v>
+        <v>0.1756276982211373</v>
       </c>
       <c r="G9" t="n">
-        <v>1.173928257480924</v>
+        <v>1.731065416626339</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6615010968594308</v>
+        <v>0.8650939725994009</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001655627379538946</v>
+        <v>0.2314638874375591</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05950294569251107</v>
+        <v>1.423011097635375</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02482268739597565</v>
+        <v>0.4190795845912054</v>
       </c>
       <c r="L9" t="n">
-        <v>1.009473719854277</v>
+        <v>0.9317780948713104</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02521361990887835</v>
+        <v>0.4256796691226256</v>
       </c>
       <c r="N9" t="n">
-        <v>144.7839889185799</v>
+        <v>37.47877775095084</v>
       </c>
       <c r="O9" t="n">
-        <v>286.1191614617963</v>
+        <v>74.44336133917666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_4</t>
+          <t>model_1_32_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998296231493105</v>
+        <v>0.9496122672048491</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8243456087512233</v>
+        <v>0.7402465115698729</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8150774251182042</v>
+        <v>0.7603521972547311</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9991027745327205</v>
+        <v>0.9430728136840202</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000709198189517607</v>
+        <v>0.176634730509635</v>
       </c>
       <c r="G10" t="n">
-        <v>1.174601723094671</v>
+        <v>1.736972773187096</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6614573279252196</v>
+        <v>0.8572062948418336</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002603133339519205</v>
+        <v>0.2442117876892335</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04774829067900097</v>
+        <v>1.391132766273499</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02663077523313219</v>
+        <v>0.4202793481836039</v>
       </c>
       <c r="L10" t="n">
-        <v>1.010904118444131</v>
+        <v>0.931386917044901</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02705018332204536</v>
+        <v>0.4268983277922808</v>
       </c>
       <c r="N10" t="n">
-        <v>144.5027510732383</v>
+        <v>37.4673426962905</v>
       </c>
       <c r="O10" t="n">
-        <v>285.8379236164546</v>
+        <v>74.43192628451632</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_3</t>
+          <t>model_1_32_8</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999838958354176</v>
+        <v>0.949628431233744</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8241289834629013</v>
+        <v>0.7402359571200754</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8149068972846039</v>
+        <v>0.7601761099749546</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9992669154125997</v>
+        <v>0.9433684457506111</v>
       </c>
       <c r="F11" t="n">
-        <v>0.000670340150044136</v>
+        <v>0.1765780673352986</v>
       </c>
       <c r="G11" t="n">
-        <v>1.176050297395147</v>
+        <v>1.737043350841491</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6620672960982361</v>
+        <v>0.8578361488314674</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002126909009767193</v>
+        <v>0.2429435564599632</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05634951924468976</v>
+        <v>1.394722229830235</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02589092794868766</v>
+        <v>0.4202119314528071</v>
       </c>
       <c r="L11" t="n">
-        <v>1.010306665332735</v>
+        <v>0.9314089276374385</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02629868418244679</v>
+        <v>0.4268298493153658</v>
       </c>
       <c r="N11" t="n">
-        <v>144.615450575551</v>
+        <v>37.4679843850987</v>
       </c>
       <c r="O11" t="n">
-        <v>285.9506231187673</v>
+        <v>74.43256797332452</v>
       </c>
     </row>
   </sheetData>
